--- a/Ganadería/17.26.xlsx
+++ b/Ganadería/17.26.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BCN\DATA INTELLIGENCE Dropbox\Diseño DATA's\Tablas Madre\Ganadería\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA1D760-ED6B-4F4B-96DA-D72237BC246F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFA029D-B369-4810-82DF-7B79F9333336}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C3FE0F7F-E924-4772-AF9D-39E50E23893D}"/>
   </bookViews>
@@ -1694,7 +1694,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E2" sqref="E2:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1743,7 +1743,7 @@
         <v>11</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F2" t="s">
         <v>420</v>
@@ -1766,7 +1766,7 @@
         <v>11</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F3" t="s">
         <v>420</v>
@@ -1789,7 +1789,7 @@
         <v>11</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F4" t="s">
         <v>421</v>
@@ -1812,7 +1812,7 @@
         <v>11</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F5" t="s">
         <v>421</v>
@@ -1835,7 +1835,7 @@
         <v>11</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F6" t="s">
         <v>421</v>
@@ -1858,7 +1858,7 @@
         <v>11</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F7" t="s">
         <v>421</v>
@@ -1881,7 +1881,7 @@
         <v>11</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F8" t="s">
         <v>421</v>
@@ -1904,7 +1904,7 @@
         <v>11</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F9" t="s">
         <v>421</v>
@@ -1927,7 +1927,7 @@
         <v>11</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F10" t="s">
         <v>421</v>
@@ -1950,7 +1950,7 @@
         <v>11</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F11" t="s">
         <v>422</v>
@@ -1973,7 +1973,7 @@
         <v>11</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F12" t="s">
         <v>422</v>
@@ -1996,7 +1996,7 @@
         <v>11</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F13" t="s">
         <v>422</v>
@@ -2019,7 +2019,7 @@
         <v>11</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F14" t="s">
         <v>422</v>
@@ -2042,7 +2042,7 @@
         <v>11</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>100401008</v>
       </c>
       <c r="F15" t="s">
         <v>422</v>
